--- a/TestData/calcdata1.xlsx
+++ b/TestData/calcdata1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/DE8209288098E798/Documents/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -82,6 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +110,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -150,6 +161,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,12 +489,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.61328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.765625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.15234375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.53515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.3046875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
@@ -522,7 +539,7 @@
       <c r="F2" s="3">
         <v>11402.45</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A3" s="3">
@@ -543,7 +560,7 @@
       <c r="F3" s="3">
         <v>55356.78</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="3">

--- a/TestData/calcdata1.xlsx
+++ b/TestData/calcdata1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/DE8209288098E798/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{277800B2-AFCA-479C-A2B1-04EE78B19364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928D3A4-72B4-4F5B-A9B8-4990D6944707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{7872F9AC-1351-407B-8F9B-40DB58ECDD6B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Principal</t>
   </si>
@@ -69,13 +69,19 @@
     <t>month(s)</t>
   </si>
   <si>
-    <t>Compounded Half-Yearly</t>
-  </si>
-  <si>
-    <t>Compounded Annually</t>
-  </si>
-  <si>
     <t>Simple Interest</t>
+  </si>
+  <si>
+    <t>Compounded Half Yearly</t>
+  </si>
+  <si>
+    <t>Compounded Yearly</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +116,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -150,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -162,10 +178,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +499,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -537,9 +552,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>11402.45</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>11376.39</v>
+      </c>
+      <c r="G2" t="s" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A3" s="3">
@@ -560,7 +577,9 @@
       <c r="F3" s="3">
         <v>55356.78</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" t="s" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="3">
@@ -576,12 +595,14 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
-        <v>15729</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>15450</v>
+      </c>
+      <c r="G4" t="s" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A5" s="3">
@@ -597,12 +618,14 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3">
         <v>30000</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" t="s" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A6" s="3">
@@ -618,12 +641,14 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
-        <v>22250</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>22200</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/calcdata1.xlsx
+++ b/TestData/calcdata1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Principal</t>
   </si>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -177,6 +177,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -554,7 +564,7 @@
       <c r="F2" s="3">
         <v>11376.39</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" t="s" s="14">
         <v>14</v>
       </c>
     </row>
@@ -577,7 +587,7 @@
       <c r="F3" s="3">
         <v>55356.78</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
     </row>
@@ -600,7 +610,7 @@
       <c r="F4" s="3">
         <v>15450</v>
       </c>
-      <c r="G4" t="s" s="6">
+      <c r="G4" t="s" s="16">
         <v>14</v>
       </c>
     </row>
@@ -623,7 +633,7 @@
       <c r="F5" s="3">
         <v>30000</v>
       </c>
-      <c r="G5" t="s" s="7">
+      <c r="G5" t="s" s="17">
         <v>15</v>
       </c>
     </row>
@@ -646,7 +656,7 @@
       <c r="F6" s="3">
         <v>22200</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" t="s" s="18">
         <v>14</v>
       </c>
     </row>
